--- a/data/trans_bre/P15-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P15-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.91851121008809</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.149157056324236</v>
+        <v>1.149157056324233</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1702977406547391</v>
@@ -649,7 +649,7 @@
         <v>0.5993522857229473</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1355086017388689</v>
+        <v>0.1355086017388686</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.144646067770185</v>
+        <v>-5.268548718012371</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.228331137956976</v>
+        <v>-8.242854652506056</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6171675085135222</v>
+        <v>-0.3859634469217789</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.869192714087406</v>
+        <v>-2.69926192179238</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6082787745783184</v>
+        <v>-0.5912280299055834</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5406431359744358</v>
+        <v>-0.5436275433515638</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1097881315027241</v>
+        <v>-0.08723270554433829</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2626869613779059</v>
+        <v>-0.244232722182445</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.519909503639084</v>
+        <v>2.904933000086378</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.55144179030094</v>
+        <v>2.364960101857045</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.708323255322192</v>
+        <v>9.003030691111464</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.077800512401859</v>
+        <v>5.28112693495537</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6487202701509854</v>
+        <v>0.6325905207651059</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2920393563725095</v>
+        <v>0.256078312593259</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.974643493899084</v>
+        <v>1.893810818106851</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.831935770991966</v>
+        <v>0.8789497448863249</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.8277144488125495</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.699723458991339</v>
+        <v>1.69972345899134</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.09235410115143343</v>
@@ -749,7 +749,7 @@
         <v>-0.2142594921575973</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3651164197407258</v>
+        <v>0.365116419740726</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.952888846496752</v>
+        <v>-2.984406232206428</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.312308824913088</v>
+        <v>-3.655916405096201</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.098626346012191</v>
+        <v>-3.194284455914636</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.376459342498378</v>
+        <v>-1.295167371833807</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5501299487735695</v>
+        <v>-0.564094043178783</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4218965446579802</v>
+        <v>-0.445693605890657</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.622116692782257</v>
+        <v>-0.617737394221905</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2179609459524705</v>
+        <v>-0.2204456565563545</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.258590889691834</v>
+        <v>1.995169340652751</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.52270417440124</v>
+        <v>2.393396964006999</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.728804136890605</v>
+        <v>1.554668142375297</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.255168560839834</v>
+        <v>4.446050166303714</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8442128900169247</v>
+        <v>0.7416080880494971</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5321222670926463</v>
+        <v>0.5362954596156515</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6897874787615828</v>
+        <v>0.7618354746441128</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.381010667421437</v>
+        <v>1.426350279875845</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-3.164791898970608</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4327865866600444</v>
+        <v>0.432786586660043</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.5323564810628422</v>
@@ -849,7 +849,7 @@
         <v>-0.4339858346324058</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.06129696004669915</v>
+        <v>0.06129696004669894</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.710347392967519</v>
+        <v>-9.288303227657908</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.294670517674817</v>
+        <v>-9.705724897986677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.867728641352174</v>
+        <v>-6.846993036112655</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.986270350821502</v>
+        <v>-3.121572511532344</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7593299663216097</v>
+        <v>-0.7746527766996137</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.511718895354998</v>
+        <v>-0.5037196846807329</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7307617735304727</v>
+        <v>-0.7128711978391168</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3389814090173249</v>
+        <v>-0.3431006058186798</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.285629376803312</v>
+        <v>-1.3516116670718</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.398717131334861</v>
+        <v>0.7520682470899177</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3266290792934</v>
+        <v>0.2924540304726231</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.275116138196854</v>
+        <v>4.097340743542543</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.1382486672582198</v>
+        <v>-0.1695104675666928</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09729322183731892</v>
+        <v>0.0665858459284388</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09659631349855256</v>
+        <v>0.09268508097306626</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8938983966033982</v>
+        <v>0.8151159133321919</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>-0.09500894118148299</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3894273424725602</v>
+        <v>-0.3894273424725601</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.403207183487334</v>
+        <v>-9.616006442260879</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-8.565800552289275</v>
+        <v>-8.315582035017693</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.833471256113378</v>
+        <v>-5.792518081986366</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.820386228473579</v>
+        <v>-8.268848843689568</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6975815222649311</v>
+        <v>-0.6955956376208906</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7216244948659352</v>
+        <v>-0.7255655215725557</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.458576529540424</v>
+        <v>-0.4582144558010663</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7059323418448979</v>
+        <v>-0.7241318290573036</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-1.818009995644955</v>
+        <v>-1.28672458751997</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.5773254482803991</v>
+        <v>-0.4939233000391544</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.039326117979169</v>
+        <v>3.228574961508691</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.079975959538944</v>
+        <v>1.652540845320308</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1682836660115407</v>
+        <v>-0.1193344023623716</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.05470868021150539</v>
+        <v>-0.05726678393911872</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5300237041038079</v>
+        <v>0.4276424314410723</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3037457282343843</v>
+        <v>0.3709378392743986</v>
       </c>
     </row>
     <row r="16">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.292699534730689</v>
+        <v>-8.479933155481001</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.520903283066338</v>
+        <v>-1.93488358341134</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.250445857233198</v>
+        <v>-6.105745651526452</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.744937856285745</v>
+        <v>-7.263757109691586</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7422678919102963</v>
+        <v>-0.683426150110118</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3265320408971488</v>
+        <v>-0.2788153525597404</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.8971889228189287</v>
+        <v>-0.9103646366216975</v>
       </c>
       <c r="J17" s="6" t="n">
         <v>-1</v>
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.522959683420189</v>
+        <v>2.462077852727481</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.08339697419119</v>
+        <v>8.159266058670328</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9000951088058727</v>
+        <v>0.3721250587972763</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.364406795304191</v>
+        <v>-1.438107036836769</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2726289305385173</v>
+        <v>0.3726237076879744</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.879851122529518</v>
+        <v>2.079750982372967</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6910157948888795</v>
+        <v>0.2344305291954011</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1240626710756856</v>
+        <v>-0.476345303244383</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>2.622982270920334</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.054217186167751</v>
+        <v>1.054217186167747</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05403508745176146</v>
@@ -1149,7 +1149,7 @@
         <v>0.2445335746212156</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1096866652796303</v>
+        <v>0.1096866652796298</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.971496809406527</v>
+        <v>-3.94765617432015</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.115844638301276</v>
+        <v>-4.479810541458346</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.325805580598183</v>
+        <v>-2.965445699270508</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.076363200192763</v>
+        <v>-2.795958578621248</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4303598609875712</v>
+        <v>-0.4361631347269834</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2907992834831136</v>
+        <v>-0.3287915717903025</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.251253266138865</v>
+        <v>-0.2179394611511379</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2606904432491371</v>
+        <v>-0.2449118612341257</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.1231751718216</v>
+        <v>4.760957099383022</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.081629039445579</v>
+        <v>7.00033653077007</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8.09455701433534</v>
+        <v>8.824151146869081</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.223257879902906</v>
+        <v>5.385814490729519</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.042934700518988</v>
+        <v>0.9549241949360061</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8631137777453529</v>
+        <v>0.857092046460206</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9717508676795115</v>
+        <v>1.090789893385413</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6769982601940882</v>
+        <v>0.7036115546743911</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-0.06191019921580956</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.1853445652529637</v>
+        <v>-0.1853445652529651</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.4857541699963513</v>
@@ -1249,7 +1249,7 @@
         <v>-0.01537578036387898</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.02390364178653264</v>
+        <v>-0.02390364178653282</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.330225172496997</v>
+        <v>-6.027218985236272</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.685925716139385</v>
+        <v>-4.479963984186071</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.321288805706346</v>
+        <v>-2.420719749830246</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.144801921187555</v>
+        <v>-3.285685116263739</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.6962495238984502</v>
+        <v>-0.6865540962028446</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3864076161120288</v>
+        <v>-0.3828715810258394</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4556182899011863</v>
+        <v>-0.4589626561776861</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3217884852804394</v>
+        <v>-0.3483267064185689</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.9363534360411284</v>
+        <v>-1.026850606222735</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.979921462206866</v>
+        <v>2.095806725794492</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.955785367214393</v>
+        <v>2.111395181628814</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.71669637485184</v>
+        <v>2.657489172325977</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.1460357773949856</v>
+        <v>-0.1590564079992277</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2514233046259431</v>
+        <v>0.2498855098576188</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.681512099467147</v>
+        <v>0.7312136690856965</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.4661719648403355</v>
+        <v>0.4645363858049301</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.69592937412438</v>
+        <v>-2.856247830001923</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.800859182004905</v>
+        <v>-1.789155753608762</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-3.268661111211306</v>
+        <v>-3.08255692151762</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.833307799029049</v>
+        <v>-1.707557126045391</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3568205543797717</v>
+        <v>-0.3578994627825177</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.448744633312501</v>
+        <v>-0.4550844320926117</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.575811644511409</v>
+        <v>-0.5591495316981702</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3670780410215624</v>
+        <v>-0.3526080594595885</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.04292852497514</v>
+        <v>2.02115117661411</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.940472314789275</v>
+        <v>1.825425083441696</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7199596356281875</v>
+        <v>0.957385769548954</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.078324317674478</v>
+        <v>2.133983395140931</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3886107056178781</v>
+        <v>0.3644784992014272</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.877162945474925</v>
+        <v>0.8777421352313257</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2365650146961903</v>
+        <v>0.2851691523415207</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7559156417092781</v>
+        <v>0.7729805974561901</v>
       </c>
     </row>
     <row r="28">
@@ -1449,7 +1449,7 @@
         <v>-0.08161293998765559</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.006466767922846579</v>
+        <v>-0.006466767922846578</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.401829569457589</v>
+        <v>-3.408739370484315</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.388030492821386</v>
+        <v>-2.366108461746852</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.620871249554251</v>
+        <v>-1.600865569357774</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.172578505887255</v>
+        <v>-1.153670352915411</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.4236874521987778</v>
+        <v>-0.4151805963247248</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.2609941996303508</v>
+        <v>-0.2617878736390027</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.2515967324776853</v>
+        <v>-0.2443363983428543</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.1682838441668494</v>
+        <v>-0.1661392007719966</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-1.014053507580381</v>
+        <v>-1.039470510501139</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2296358240785124</v>
+        <v>0.1194705931165803</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5914915168742486</v>
+        <v>0.5942474852852452</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.15026668021478</v>
+        <v>1.155785208528297</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.1520796947008405</v>
+        <v>-0.1446612666586596</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03151900976318029</v>
+        <v>0.0162458223448844</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1155260498011632</v>
+        <v>0.1115749313745528</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.2054436855153622</v>
+        <v>0.2186020983046863</v>
       </c>
     </row>
     <row r="31">
